--- a/xlsx/亨利·法约尔_intext.xlsx
+++ b/xlsx/亨利·法约尔_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%A1%94%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>加拉塔大橋</t>
+    <t>加拉塔大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%89%BE%E8%92%82%E5%AE%89</t>
